--- a/biology/Écologie/Compétition_interspécifique/Compétition_interspécifique.xlsx
+++ b/biology/Écologie/Compétition_interspécifique/Compétition_interspécifique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Comp%C3%A9tition_intersp%C3%A9cifique</t>
+          <t>Compétition_interspécifique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une compétition interspécifique est une concurrence entre deux espèces différentes pour la même ressource. C'est l'inverse de la compétition intraspécifique, qui elle est une concurrence au sein d'une même espèce. 
 La compétition pour la même ressource provient du fait que la ressource est limitée ou que les compétiteurs interfèrent pour obtenir la ressource.
